--- a/flows/EDV_fund_flow_data.xlsx
+++ b/flows/EDV_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4088"/>
+  <dimension ref="A1:B4100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41315,6 +41315,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4089">
+      <c r="A4089" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4090" t="n">
+        <v>16.956</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4091" t="n">
+        <v>5.69325</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4092" t="n">
+        <v>9.445</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4093" t="n">
+        <v>42.3665</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4094" t="n">
+        <v>11.6475</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4097" t="n">
+        <v>15.434</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4099" t="n">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4100" t="n">
+        <v>-7.414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
